--- a/web/downloadfiles/Plantilla_Glosario.xlsx
+++ b/web/downloadfiles/Plantilla_Glosario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">T de Categorías </t>
   </si>
@@ -28,37 +28,40 @@
     <t xml:space="preserve">Categoría Lingüística</t>
   </si>
   <si>
-    <t xml:space="preserve">Se refiere a las categorías que se configuran a través de la verbalización de palabras clave por parte del agente o el cliente</t>
+    <t xml:space="preserve">Se refiere a las categorías que se configuran a través de la verbalización de palabras claves por parte del agente o el cliente.</t>
   </si>
   <si>
     <t xml:space="preserve">Categoría No Lingüística</t>
   </si>
   <si>
-    <t xml:space="preserve">Hace referencia a las categorías que nos permiten identificar habilidades o situaciones que no sea posible identificar con palabras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variables y Ejemplos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En los ejemplos se encuentran algunas frases o palabras utilizadas para cada categoría.</t>
+    <t xml:space="preserve">Hace referencia a las categorías que nos permiten identificar habilidades o situaciones que no son posibles identificar por medio de la verbalización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categoría Compuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace referencia a las categorías que se componen por una o mas categorías ya creadas.</t>
   </si>
   <si>
     <t xml:space="preserve">Indicadores de atributos: Modelo de Valoración Semiautomática</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicadores Clientes Reiterativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Categoría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marca/Canal/Agente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de la Categoría </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción </t>
+    <t xml:space="preserve">Categoría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de categoría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsabilidad (Agente/Marca/Canal/Mixta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejemplos</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -112,6 +115,15 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -188,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,7 +217,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,8 +237,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -304,9 +328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1844280</xdr:colOff>
+      <xdr:colOff>1843200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,7 +344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="513000" y="1960200"/>
-          <a:ext cx="1331280" cy="1276920"/>
+          <a:ext cx="1330200" cy="1275840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -340,18 +364,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="37.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -362,6 +387,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
@@ -369,45 +395,48 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -415,54 +444,47 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:E8"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/web/downloadfiles/Plantilla_Glosario.xlsx
+++ b/web/downloadfiles/Plantilla_Glosario.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">T de Categorías </t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Categoría Lingüística</t>
   </si>
   <si>
-    <t xml:space="preserve">Se refiere a las categorías que se configuran a través de la verbalización de palabras claves por parte del agente o el cliente.</t>
+    <t xml:space="preserve"> Se refiere a las categorías que se configuran a través de la verbalización de palabras claves por parte del agente o el cliente.</t>
   </si>
   <si>
     <t xml:space="preserve">Categoría No Lingüística</t>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Indicadores de atributos: Modelo de Valoración Semiautomática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_Categoría</t>
   </si>
   <si>
     <t xml:space="preserve">Categoría</t>
@@ -71,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +95,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -102,24 +113,29 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Liberation sans1"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -152,12 +168,26 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -167,13 +197,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -200,24 +223,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,23 +252,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,15 +353,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>513000</xdr:colOff>
+      <xdr:colOff>297720</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>294120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1843200</xdr:colOff>
+      <xdr:colOff>1627560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -343,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="513000" y="1960200"/>
-          <a:ext cx="1330200" cy="1275840"/>
+          <a:off x="297720" y="1960200"/>
+          <a:ext cx="1329840" cy="1275480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,19 +395,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="37.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="37.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -388,103 +420,116 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="94.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
